--- a/Data/SimulationResults.xlsx
+++ b/Data/SimulationResults.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Winrates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Winrate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Score Difference" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,39 +437,96 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RandomMoves</t>
+          <t>RandomMoves P2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>HighestFirst</t>
+          <t>HighestFirst P2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RandomMoves</t>
+          <t>RandomMoves P1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.506</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>HighestFirst</t>
+          <t>HighestFirst P1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.494</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.456</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RandomMoves P2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>HighestFirst P2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RandomMoves P1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>HighestFirst P1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-14</v>
       </c>
     </row>
   </sheetData>
